--- a/afip_arca/Descripción del XML solicitud.xlsx
+++ b/afip_arca/Descripción del XML solicitud.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECT_NEUMATIC\afip_arca\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28701BE9-8227-4E95-A01D-9F43FF75BEEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A07D676-6072-472C-B7B9-D430A4412972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5AF5BDCB-0A23-4061-9CBD-F5A31050A6BB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
   <si>
     <t>CUIT del Emisor</t>
   </si>
@@ -128,9 +128,6 @@
     <t>&lt;Importe&gt;96137.88&lt;/Importe&gt;</t>
   </si>
   <si>
-    <t>Número del detalle del Cmprobante</t>
-  </si>
-  <si>
     <t>Código AFIP del Tipo de Documento de Identidad</t>
   </si>
   <si>
@@ -183,13 +180,34 @@
   </si>
   <si>
     <t>Descripción</t>
+  </si>
+  <si>
+    <t>1: Producto, 2: servicio, 3: Producto y Servicio (envía siempres 3)</t>
+  </si>
+  <si>
+    <t>No gravado</t>
+  </si>
+  <si>
+    <t>Misma fecha del Documento</t>
+  </si>
+  <si>
+    <t>Va vación en casos: 202. 203. 207, 208 y 213</t>
+  </si>
+  <si>
+    <t>Siempre es N</t>
+  </si>
+  <si>
+    <t>Agregar el modelo TipoIva el campo codigo_afip</t>
+  </si>
+  <si>
+    <t>AlicuotaIVA.codigo_alicuota, usar el  valor entero</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,6 +245,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -254,7 +279,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -262,6 +287,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -596,29 +622,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9A8AB1-F24D-42F3-A073-966E7025383E}">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="60" style="2" customWidth="1"/>
     <col min="2" max="2" width="44.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -658,7 +685,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -666,7 +693,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -674,7 +701,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -682,7 +709,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -690,7 +717,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -698,7 +725,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -706,130 +733,140 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="C28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="C30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
--- a/afip_arca/Descripción del XML solicitud.xlsx
+++ b/afip_arca/Descripción del XML solicitud.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECT_NEUMATIC\afip_arca\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A07D676-6072-472C-B7B9-D430A4412972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A80118-F7B4-4539-941B-FFA0C16E83CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5AF5BDCB-0A23-4061-9CBD-F5A31050A6BB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
   <si>
     <t>CUIT del Emisor</t>
   </si>
@@ -182,15 +182,9 @@
     <t>Descripción</t>
   </si>
   <si>
-    <t>1: Producto, 2: servicio, 3: Producto y Servicio (envía siempres 3)</t>
-  </si>
-  <si>
     <t>No gravado</t>
   </si>
   <si>
-    <t>Misma fecha del Documento</t>
-  </si>
-  <si>
     <t>Va vación en casos: 202. 203. 207, 208 y 213</t>
   </si>
   <si>
@@ -201,6 +195,12 @@
   </si>
   <si>
     <t>AlicuotaIVA.codigo_alicuota, usar el  valor entero</t>
+  </si>
+  <si>
+    <t>1: Producto, 2: servicio, 3: Producto y Servicio (usar 3)</t>
+  </si>
+  <si>
+    <t>Empresa.cuit</t>
   </si>
 </sst>
 </file>
@@ -253,7 +253,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -263,6 +263,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -279,7 +285,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -288,6 +294,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -624,23 +635,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9A8AB1-F24D-42F3-A073-966E7025383E}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="60" style="2" customWidth="1"/>
-    <col min="2" max="2" width="44.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="45" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>46</v>
       </c>
@@ -648,23 +659,29 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -672,7 +689,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -680,15 +697,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -696,7 +713,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -704,7 +721,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -712,7 +729,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -720,7 +737,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -728,51 +745,47 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>49</v>
+      <c r="B17" s="8" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>50</v>
-      </c>
+      <c r="B19" s="8"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>50</v>
-      </c>
+      <c r="B20" s="8"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="7" t="s">
         <v>37</v>
       </c>
     </row>
@@ -800,7 +813,7 @@
         <v>39</v>
       </c>
       <c r="C24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -824,7 +837,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -835,7 +848,7 @@
         <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -846,7 +859,7 @@
         <v>42</v>
       </c>
       <c r="C30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">

--- a/afip_arca/Descripción del XML solicitud.xlsx
+++ b/afip_arca/Descripción del XML solicitud.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECT_NEUMATIC\afip_arca\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A80118-F7B4-4539-941B-FFA0C16E83CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A597F1-DD16-4256-B73A-E4594383ACDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5AF5BDCB-0A23-4061-9CBD-F5A31050A6BB}"/>
+    <workbookView xWindow="20370" yWindow="-2040" windowWidth="20730" windowHeight="11160" xr2:uid="{5AF5BDCB-0A23-4061-9CBD-F5A31050A6BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
   <si>
     <t>CUIT del Emisor</t>
   </si>
@@ -201,6 +201,12 @@
   </si>
   <si>
     <t>Empresa.cuit</t>
+  </si>
+  <si>
+    <t>Exento</t>
+  </si>
+  <si>
+    <t>Percepcion</t>
   </si>
 </sst>
 </file>
@@ -635,8 +641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9A8AB1-F24D-42F3-A073-966E7025383E}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -773,13 +779,17 @@
       <c r="A19" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="8"/>
+      <c r="B19" s="8" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="8"/>
+      <c r="B20" s="8" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
